--- a/files_prod/master_specs.xlsx
+++ b/files_prod/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7460B-D49A-4BDE-9673-433246439884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BC212-BB6B-4AB5-89DC-F9CBADE6E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>t_iso_language_codes_raw</t>
   </si>
   <si>
-    <t>sdmf</t>
+    <t>yalsworld_datawarehouse</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,16 +766,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:R2">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
@@ -810,7 +810,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
-      <formula1>"testing,sdmf"</formula1>
+      <formula1>"testing,yalsworld_datawarehouse"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
       <formula1>"bronze,silver,gold"</formula1>

--- a/files_prod/master_specs.xlsx
+++ b/files_prod/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BC212-BB6B-4AB5-89DC-F9CBADE6E09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF680C9-DFBA-459F-84BD-E4F83DDEEC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files_prod/master_specs.xlsx
+++ b/files_prod/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev2\sdmf-official\files_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF680C9-DFBA-459F-84BD-E4F83DDEEC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B4A2A-9241-4726-B107-DE6085FAE1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -102,6 +102,30 @@
     <t>parent_feed_id</t>
   </si>
   <si>
+    <t>PARQUET</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>API_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>SOURCE_TO_BRONZE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>iso_language_codes_raw</t>
+  </si>
+  <si>
+    <t>t_iso_language_codes_raw</t>
+  </si>
+  <si>
+    <t>yalsworld_datawarehouse</t>
+  </si>
+  <si>
     <t>{
     "vacuum_hours": 168,
     "partition_keys": [],
@@ -127,7 +151,7 @@
                 "metadata": {}
             },
             {
-                "name": "english_label",
+                "name": "english",
                 "type": "string",
                 "nullable": true,
                 "metadata": {}
@@ -177,30 +201,6 @@
         }
     }
 }</t>
-  </si>
-  <si>
-    <t>PARQUET</t>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>API_EXTRACTOR</t>
-  </si>
-  <si>
-    <t>SOURCE_TO_BRONZE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>iso_language_codes_raw</t>
-  </si>
-  <si>
-    <t>t_iso_language_codes_raw</t>
-  </si>
-  <si>
-    <t>yalsworld_datawarehouse</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,31 +724,31 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
